--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_08_end.xlsx
@@ -612,7 +612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Waaaaahhhh! Ugh, hold on. I should do a different cry next time, I’m getting rather tired of this one...
+    <t xml:space="preserve">[name="High Priest"]  Waaaaahhhh! Ugh, hold on. I should do a different cry next time, I'm getting rather tired of this one...
 </t>
   </si>
   <si>
@@ -620,15 +620,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  No need to worry, he’ll be back in a minute.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Okay... is he like... a person? I’ve never heard of anyone like him before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  No idea, the High Priest only told me he’s lived here for a very long time.
+    <t xml:space="preserve">[name="Eunectes"]  No need to worry, he'll be back in a minute.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Okay... is he like... a person? I've never heard of anyone like him before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  No idea, the High Priest only told me he's lived here for a very long time.
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Phew, he’s really something...
+    <t xml:space="preserve">[name="Gavial"]  Phew, he's really something...
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s fine, just a scratch. Tomimi, bring me my medical bag here.
+    <t xml:space="preserve">[name="Gavial"]  It's fine, just a scratch. Tomimi, bring me my medical bag here.
 </t>
   </si>
   <si>
@@ -652,15 +652,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Here’s your bag. And Tomimi, I think I saw her running off somewhere right before we won the fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Thanks. She didn’t get scared, did she? Anyway, let’s patch ourselves up first.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You go check if anyone’s injured, and bring them to me if they are. I’ll take care of them.
+    <t xml:space="preserve">[name="Utage"]  Here's your bag. And Tomimi, I think I saw her running off somewhere right before we won the fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Thanks. She didn't get scared, did she? Anyway, let's patch ourselves up first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You go check if anyone's injured, and bring them to me if they are. I'll take care of them.
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Quit yer belly-achin’.
+    <t xml:space="preserve">[name="Croissant"]  Quit yer belly-achin'.
 </t>
   </si>
   <si>
@@ -696,19 +696,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I checked your engine, I think it’s working fine. You can have it back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh yeah? That’s great!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You really won’t stay, Gavial?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, just like you, I’ve found my calling.
+    <t xml:space="preserve">[name="Eunectes"]  I checked your engine, I think it's working fine. You can have it back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh yeah? That's great!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You really won't stay, Gavial?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, just like you, I've found my calling.
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  That’s it.
+    <t xml:space="preserve">[name="Gavial"]  That's it.
 </t>
   </si>
   <si>
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Look, everyone’s here again. They’re looking to you.
+    <t xml:space="preserve">[name="Eunectes"]  Look, everyone's here again. They're looking to you.
 </t>
   </si>
   <si>
@@ -760,11 +760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You’re not giving me anything here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, I know you’re awake! I’m a doctor!
+    <t xml:space="preserve">[name="Gavial"]  You're not giving me anything here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, I know you're awake! I'm a doctor!
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm? I’m fine. Where did you run off to?
+    <t xml:space="preserve">[name="Gavial"]  Hm? I'm fine. Where did you run off to?
 </t>
   </si>
   <si>
@@ -788,11 +788,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  What’s wrong, Gavial? Why are you looking at me like that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm... Haha, I’ve got it!
+    <t xml:space="preserve">[name="Tomimi"]  What's wrong, Gavial? Why are you looking at me like that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hm... Haha, I've got it!
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I beat the Big Ugly, so I’m going to be the Great Chief.
+    <t xml:space="preserve">[name="Gavial"]  I beat the Big Ugly, so I'm going to be the Great Chief.
 </t>
   </si>
   <si>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Worry not, though! When I’m gone, Tomimi will give orders on my behalf!
+    <t xml:space="preserve">[name="Gavial"]  Worry not, though! When I'm gone, Tomimi will give orders on my behalf!
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Is that really gonna fly? Don’t these people worship strength over everything?
+    <t xml:space="preserve">[name="Utage"]  Is that really gonna fly? Don't these people worship strength over everything?
 </t>
   </si>
   <si>
@@ -844,15 +844,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha. Zumama, machines are pretty cool, but I think I’ll stick with my fists after all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Hmph. Don’t forget, I still don’t recognize you. I’ll build an even greater machine and challenge you again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Sure, I’ll be waiting.
+    <t xml:space="preserve">[name="Gavial"]  Haha. Zumama, machines are pretty cool, but I think I'll stick with my fists after all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Hmph. Don't forget, I still don't recognize you. I'll build an even greater machine and challenge you again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Sure, I'll be waiting.
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You don’t have a choice this time. Besides, until Tomimi takes over, I’m still the Great Chief. I’ll bring you back even if I have to kidnap you.
+    <t xml:space="preserve">[name="Gavial"]  You don't have a choice this time. Besides, until Tomimi takes over, I'm still the Great Chief. I'll bring you back even if I have to kidnap you.
 </t>
   </si>
   <si>
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Yep, I’ll probably be leaving right as soon as we get the engine back in the aircraft.
+    <t xml:space="preserve">[name="Gavial"]  Yep, I'll probably be leaving right as soon as we get the engine back in the aircraft.
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  I-I won’t let you leave!
+    <t xml:space="preserve">[name="Tomimi"]  I-I won't let you leave!
 </t>
   </si>
   <si>
